--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16393.45038546327</v>
+        <v>3262296.626707192</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16393.45038546327</v>
+        <v>3262296.626707192</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50718.14515342357</v>
+        <v>3126414.526778585</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50718.14515342357</v>
+        <v>3126414.526778585</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419607993.54373</v>
+        <v>55553399.52046086</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14166.38612645424</v>
+        <v>1363560.203470171</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26758.6104056123</v>
+        <v>2458899.816717927</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39336.01710614225</v>
+        <v>3554239.429965686</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52637.7835091687</v>
+        <v>4648147.251848463</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65939.54991219511</v>
+        <v>5742055.07373124</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>79241.31631522153</v>
+        <v>6835962.895614008</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>92543.08271824796</v>
+        <v>7929870.717496778</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105844.8491212744</v>
+        <v>9023778.539379548</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119211.3188014182</v>
+        <v>10100593.53267608</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>132594.8939361074</v>
+        <v>11180812.51142716</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>145978.4690707967</v>
+        <v>12261031.49017824</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>159362.0442054858</v>
+        <v>13341250.46892933</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>172745.6193401751</v>
+        <v>14421469.44768042</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>186132.6384507354</v>
+        <v>15501680.68572346</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>199516.1950914227</v>
+        <v>16581899.66447455</v>
       </c>
     </row>
   </sheetData>
